--- a/pseud_epi_growth_2024summer_R.xlsx
+++ b/pseud_epi_growth_2024summer_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8F62BC-A7B7-FF4B-B20C-E3A6F925BBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301256AE-5D6E-BE47-86AF-7A4DCDC3CE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="27720" windowHeight="16940" xr2:uid="{531AFAF7-A9B0-284D-AB86-9C10EDD001D7}"/>
   </bookViews>
@@ -36,17 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="162">
-  <si>
-    <t>field sample #8</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="150">
   <si>
     <t>P. parallactic</t>
   </si>
   <si>
-    <t>field sample #17</t>
-  </si>
-  <si>
     <t>P. fluorescence</t>
   </si>
   <si>
@@ -83,9 +77,6 @@
     <t>block</t>
   </si>
   <si>
-    <t>number</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -98,42 +89,18 @@
     <t>Sara</t>
   </si>
   <si>
-    <t xml:space="preserve">b728a </t>
-  </si>
-  <si>
     <t>&lt;1.00E+03</t>
   </si>
   <si>
-    <t>field sample #18-1</t>
-  </si>
-  <si>
     <t>P. fluorescens</t>
   </si>
   <si>
-    <t>field sample #26-1</t>
-  </si>
-  <si>
     <t>P. syringae</t>
   </si>
   <si>
-    <t>field sample #26-2</t>
-  </si>
-  <si>
-    <t>field sample #29-2</t>
-  </si>
-  <si>
     <t>P. paralactis</t>
   </si>
   <si>
-    <t>field sample #35</t>
-  </si>
-  <si>
-    <t>field sample #36</t>
-  </si>
-  <si>
-    <t>B728a ΔFlgK</t>
-  </si>
-  <si>
     <t>sample</t>
   </si>
   <si>
@@ -374,18 +341,12 @@
     <t>2-4</t>
   </si>
   <si>
-    <t>Pisi</t>
-  </si>
-  <si>
     <t>2-5</t>
   </si>
   <si>
     <t>2-6</t>
   </si>
   <si>
-    <t>field sample #14</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
@@ -398,9 +359,6 @@
     <t>2-7</t>
   </si>
   <si>
-    <t>field sample #29-3</t>
-  </si>
-  <si>
     <t>2-3-204-A1</t>
   </si>
   <si>
@@ -522,6 +480,12 @@
   </si>
   <si>
     <t>2-1</t>
+  </si>
+  <si>
+    <t>B728a</t>
+  </si>
+  <si>
+    <t>pisi</t>
   </si>
 </sst>
 </file>
@@ -557,7 +521,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -565,26 +529,161 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
     <dxf>
       <font>
         <b val="0"/>
@@ -603,6 +702,22 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -622,6 +737,24 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -641,6 +774,26 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -660,6 +813,26 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -679,6 +852,26 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -698,6 +891,26 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -717,6 +930,26 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -736,25 +969,54 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -791,20 +1053,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{473B24F8-CE6A-DD41-8057-5706F46969E7}" name="Table3" displayName="Table3" ref="A1:H115" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:H115" xr:uid="{473B24F8-CE6A-DD41-8057-5706F46969E7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H115">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{473B24F8-CE6A-DD41-8057-5706F46969E7}" name="Table3" displayName="Table3" ref="A1:G115" totalsRowShown="0" headerRowDxfId="0" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:G115" xr:uid="{473B24F8-CE6A-DD41-8057-5706F46969E7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G115">
     <sortCondition ref="C1:C115"/>
   </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{79B774C7-19E1-E44C-93A3-534AA1EC2EC5}" name="sample" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{BDF1DD58-4ACB-A24F-B5BD-72CD9F931025}" name="person" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{B8055292-21AA-6048-B0E9-DCD4D41BE2D0}" name="block" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{ED985B81-A5C7-1C48-A9FC-68F50AFED322}" name="number" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{2E4628FC-D32A-5640-9A00-3F6844605958}" name="strain" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{ED50E578-BA94-F94A-A39C-47AE786F0B3F}" name="species" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{111388D3-8650-BB4E-BF6C-36D07A696611}" name="plant_rep" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{0EFE4EF2-B0EE-814D-B3F4-2C291DA83834}" name="CFU_per_10_leafdiscs" dataDxfId="2"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{79B774C7-19E1-E44C-93A3-534AA1EC2EC5}" name="sample" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{BDF1DD58-4ACB-A24F-B5BD-72CD9F931025}" name="person" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{B8055292-21AA-6048-B0E9-DCD4D41BE2D0}" name="block" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{ED985B81-A5C7-1C48-A9FC-68F50AFED322}" name="strain" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{ED50E578-BA94-F94A-A39C-47AE786F0B3F}" name="species" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{111388D3-8650-BB4E-BF6C-36D07A696611}" name="plant_rep" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{0EFE4EF2-B0EE-814D-B3F4-2C291DA83834}" name="CFU_per_10_leafdiscs" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1127,10 +1388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC33927-75BD-A144-A8B4-F2C10C3589D3}">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I115" sqref="I115:I116"/>
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="43.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1139,45 +1400,41 @@
     <col min="2" max="2" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="43.83203125" style="1"/>
+    <col min="5" max="5" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="43.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>48</v>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
@@ -1186,24 +1443,21 @@
         <v>205</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="7">
         <v>110000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>49</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -1212,24 +1466,21 @@
         <v>205</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2">
+        <v>3</v>
+      </c>
+      <c r="G3" s="7">
         <v>170000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>50</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -1238,24 +1489,21 @@
         <v>205</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>54</v>
+        <v>4</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
@@ -1264,24 +1512,21 @@
         <v>215</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>55</v>
+        <v>2</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -1290,24 +1535,21 @@
         <v>215</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>56</v>
+        <v>3</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -1316,24 +1558,21 @@
         <v>215</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>60</v>
+        <v>4</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
@@ -1342,24 +1581,21 @@
         <v>216</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="7">
         <v>22000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>61</v>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
@@ -1368,24 +1604,21 @@
         <v>216</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="2">
+        <v>3</v>
+      </c>
+      <c r="G9" s="7">
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>62</v>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2">
         <v>3</v>
@@ -1394,24 +1627,21 @@
         <v>216</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>51</v>
+        <v>4</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2">
         <v>4</v>
@@ -1420,24 +1650,21 @@
         <v>205</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2">
         <v>4</v>
@@ -1446,24 +1673,21 @@
         <v>205</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="2">
+        <v>3</v>
+      </c>
+      <c r="G12" s="7">
         <v>31000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>53</v>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2">
         <v>4</v>
@@ -1472,24 +1696,21 @@
         <v>205</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="2">
+        <v>4</v>
+      </c>
+      <c r="G13" s="7">
         <v>30000</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>57</v>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2">
         <v>4</v>
@@ -1498,24 +1719,21 @@
         <v>215</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>58</v>
+        <v>2</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2">
         <v>4</v>
@@ -1524,24 +1742,21 @@
         <v>215</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>59</v>
+        <v>3</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2">
         <v>4</v>
@@ -1550,24 +1765,21 @@
         <v>215</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>63</v>
+        <v>4</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2">
         <v>4</v>
@@ -1576,24 +1788,21 @@
         <v>216</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>64</v>
+        <v>2</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C18" s="2">
         <v>4</v>
@@ -1602,24 +1811,21 @@
         <v>216</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="2">
+        <v>3</v>
+      </c>
+      <c r="G18" s="7">
         <v>4700</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>65</v>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C19" s="2">
         <v>4</v>
@@ -1628,102 +1834,90 @@
         <v>216</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="2">
+        <v>4</v>
+      </c>
+      <c r="G19" s="7">
         <v>3900</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>99</v>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C20" s="2">
         <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="2">
+        <v>2</v>
+      </c>
+      <c r="G20" s="7">
         <v>360000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>100</v>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C21" s="2">
         <v>4</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="2">
+        <v>3</v>
+      </c>
+      <c r="G21" s="7">
         <v>24000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>101</v>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C22" s="2">
         <v>4</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="2">
+        <v>4</v>
+      </c>
+      <c r="G22" s="7">
         <v>250000</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>69</v>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C23" s="2">
         <v>5</v>
@@ -1732,24 +1926,21 @@
         <v>220</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="2">
+        <v>2</v>
+      </c>
+      <c r="G23" s="7">
         <v>40000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>70</v>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C24" s="2">
         <v>5</v>
@@ -1758,24 +1949,21 @@
         <v>220</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="2">
+        <v>3</v>
+      </c>
+      <c r="G24" s="7">
         <v>36000</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>71</v>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C25" s="2">
         <v>5</v>
@@ -1784,24 +1972,21 @@
         <v>220</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" s="2">
+        <v>4</v>
+      </c>
+      <c r="G25" s="7">
         <v>29000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>78</v>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C26" s="2">
         <v>5</v>
@@ -1810,24 +1995,21 @@
         <v>227</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="2">
+        <v>2</v>
+      </c>
+      <c r="G26" s="7">
         <v>22000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>79</v>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C27" s="2">
         <v>5</v>
@@ -1836,24 +2018,21 @@
         <v>227</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>80</v>
+        <v>3</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C28" s="2">
         <v>5</v>
@@ -1862,24 +2041,21 @@
         <v>227</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>87</v>
+        <v>4</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C29" s="2">
         <v>5</v>
@@ -1888,24 +2064,21 @@
         <v>228</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="2">
+        <v>2</v>
+      </c>
+      <c r="G29" s="7">
         <v>42000</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>88</v>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C30" s="2">
         <v>5</v>
@@ -1914,24 +2087,21 @@
         <v>228</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>89</v>
+        <v>3</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C31" s="2">
         <v>5</v>
@@ -1940,24 +2110,21 @@
         <v>228</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31" s="2">
+        <v>4</v>
+      </c>
+      <c r="G31" s="7">
         <v>38000</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>72</v>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C32" s="2">
         <v>6</v>
@@ -1966,24 +2133,21 @@
         <v>220</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="2">
+        <v>2</v>
+      </c>
+      <c r="G32" s="7">
         <v>300000</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>73</v>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C33" s="2">
         <v>6</v>
@@ -1992,24 +2156,21 @@
         <v>220</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>74</v>
+        <v>3</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C34" s="2">
         <v>6</v>
@@ -2018,24 +2179,21 @@
         <v>220</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H34" s="2">
+        <v>4</v>
+      </c>
+      <c r="G34" s="7">
         <v>2800</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>90</v>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C35" s="2">
         <v>6</v>
@@ -2044,24 +2202,21 @@
         <v>228</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>91</v>
+        <v>2</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C36" s="2">
         <v>6</v>
@@ -2070,24 +2225,21 @@
         <v>228</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H36" s="2">
+        <v>3</v>
+      </c>
+      <c r="G36" s="7">
         <v>23000</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>92</v>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C37" s="2">
         <v>6</v>
@@ -2096,24 +2248,21 @@
         <v>228</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H37" s="2">
+        <v>4</v>
+      </c>
+      <c r="G37" s="7">
         <v>65000</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>66</v>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C38" s="2">
         <v>7</v>
@@ -2122,24 +2271,21 @@
         <v>216</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H38" s="2">
+        <v>2</v>
+      </c>
+      <c r="G38" s="7">
         <v>4700</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>67</v>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C39" s="2">
         <v>7</v>
@@ -2148,24 +2294,21 @@
         <v>216</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H39" s="2">
+        <v>3</v>
+      </c>
+      <c r="G39" s="7">
         <v>15000</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>68</v>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C40" s="2">
         <v>7</v>
@@ -2174,24 +2317,21 @@
         <v>216</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>75</v>
+        <v>4</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C41" s="2">
         <v>7</v>
@@ -2200,24 +2340,21 @@
         <v>220</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="2">
+        <v>2</v>
+      </c>
+      <c r="G41" s="7">
         <v>330000</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>76</v>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C42" s="2">
         <v>7</v>
@@ -2226,24 +2363,21 @@
         <v>220</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="2">
+        <v>3</v>
+      </c>
+      <c r="G42" s="7">
         <v>470000</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>77</v>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C43" s="2">
         <v>7</v>
@@ -2252,24 +2386,21 @@
         <v>220</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>93</v>
+        <v>4</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C44" s="2">
         <v>7</v>
@@ -2278,24 +2409,21 @@
         <v>228</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>94</v>
+        <v>2</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C45" s="2">
         <v>7</v>
@@ -2304,24 +2432,21 @@
         <v>228</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="2">
+        <v>3</v>
+      </c>
+      <c r="G45" s="7">
         <v>12000</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>95</v>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C46" s="2">
         <v>7</v>
@@ -2330,24 +2455,21 @@
         <v>228</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>81</v>
+        <v>4</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C47" s="2">
         <v>8</v>
@@ -2356,24 +2478,21 @@
         <v>227</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="2">
+        <v>2</v>
+      </c>
+      <c r="G47" s="7">
         <v>87000</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>82</v>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C48" s="2">
         <v>8</v>
@@ -2382,24 +2501,21 @@
         <v>227</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="2">
+        <v>3</v>
+      </c>
+      <c r="G48" s="7">
         <v>2500</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>83</v>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C49" s="2">
         <v>8</v>
@@ -2408,24 +2524,21 @@
         <v>227</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H49" s="2">
+        <v>4</v>
+      </c>
+      <c r="G49" s="7">
         <v>11050</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>84</v>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C50" s="2">
         <v>8</v>
@@ -2434,24 +2547,21 @@
         <v>227</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H50" s="2">
+        <v>5</v>
+      </c>
+      <c r="G50" s="7">
         <v>144000</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>85</v>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C51" s="2">
         <v>8</v>
@@ -2460,24 +2570,21 @@
         <v>227</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H51" s="2">
+        <v>6</v>
+      </c>
+      <c r="G51" s="7">
         <v>470000</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>86</v>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C52" s="2">
         <v>8</v>
@@ -2486,24 +2593,21 @@
         <v>227</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H52" s="2">
+        <v>7</v>
+      </c>
+      <c r="G52" s="7">
         <v>7300</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>96</v>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C53" s="2">
         <v>8</v>
@@ -2512,24 +2616,21 @@
         <v>228</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>97</v>
+        <v>2</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C54" s="2">
         <v>8</v>
@@ -2538,24 +2639,21 @@
         <v>228</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>3</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C55" s="2">
         <v>8</v>
@@ -2564,183 +2662,162 @@
         <v>228</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>102</v>
+        <v>4</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C56" s="2">
         <v>8</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>2</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C57" s="2">
         <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>104</v>
+        <v>3</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C58" s="2">
         <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>4</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C59" s="2">
         <v>8</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>106</v>
+        <v>5</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C60" s="2">
         <v>8</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H60" s="2">
+        <v>6</v>
+      </c>
+      <c r="G60" s="7">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>107</v>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C61" s="2">
         <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H61" s="2">
+        <v>7</v>
+      </c>
+      <c r="G61" s="7">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>33</v>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>161</v>
+        <v>15</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="D62" s="2">
         <v>194</v>
@@ -2749,24 +2826,21 @@
         <v>0</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="2">
+        <v>2</v>
+      </c>
+      <c r="G62" s="7">
         <v>40000</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>34</v>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>161</v>
+        <v>15</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="D63" s="2">
         <v>194</v>
@@ -2775,24 +2849,21 @@
         <v>0</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H63" s="2">
+        <v>3</v>
+      </c>
+      <c r="G63" s="7">
         <v>57000</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>35</v>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>161</v>
+        <v>15</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="D64" s="2">
         <v>194</v>
@@ -2801,24 +2872,21 @@
         <v>0</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H64" s="2">
+        <v>4</v>
+      </c>
+      <c r="G64" s="7">
         <v>136500</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>36</v>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>161</v>
+        <v>15</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="D65" s="2">
         <v>194</v>
@@ -2827,24 +2895,21 @@
         <v>0</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H65" s="2">
+        <v>5</v>
+      </c>
+      <c r="G65" s="7">
         <v>60000</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>37</v>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>161</v>
+        <v>15</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="D66" s="2">
         <v>194</v>
@@ -2853,24 +2918,21 @@
         <v>0</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H66" s="2">
+        <v>6</v>
+      </c>
+      <c r="G66" s="7">
         <v>146000</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>38</v>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>161</v>
+        <v>15</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="D67" s="2">
         <v>194</v>
@@ -2879,24 +2941,21 @@
         <v>0</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H67" s="2">
+        <v>7</v>
+      </c>
+      <c r="G67" s="7">
         <v>118750</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>39</v>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>160</v>
+        <v>15</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="D68" s="2">
         <v>194</v>
@@ -2905,24 +2964,21 @@
         <v>0</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H68" s="2">
+        <v>2</v>
+      </c>
+      <c r="G68" s="7">
         <v>230000</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>40</v>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>160</v>
+        <v>15</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="D69" s="2">
         <v>194</v>
@@ -2931,24 +2987,21 @@
         <v>0</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H69" s="2">
+        <v>3</v>
+      </c>
+      <c r="G69" s="7">
         <v>505000</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>41</v>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>160</v>
+        <v>15</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="D70" s="2">
         <v>194</v>
@@ -2957,1182 +3010,1044 @@
         <v>0</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H70" s="2">
+        <v>4</v>
+      </c>
+      <c r="G70" s="7">
         <v>115000</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>42</v>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>160</v>
+        <v>15</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="D71" s="2">
         <v>204</v>
       </c>
       <c r="E71" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F71" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H71" s="2">
+      <c r="G71" s="7">
         <v>5200</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>43</v>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>160</v>
+        <v>15</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="D72" s="2">
         <v>204</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>44</v>
+      <c r="G72" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>160</v>
+        <v>15</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="D73" s="2">
         <v>204</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H73" s="2">
+        <v>4</v>
+      </c>
+      <c r="G73" s="7">
         <v>495000</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>45</v>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>160</v>
+        <v>15</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="D74" s="2">
         <v>204</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H74" s="2">
+        <v>5</v>
+      </c>
+      <c r="G74" s="7">
         <v>97000</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>46</v>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>160</v>
+        <v>15</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="D75" s="2">
         <v>204</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H75" s="2">
+        <v>6</v>
+      </c>
+      <c r="G75" s="7">
         <v>114000</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>47</v>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>160</v>
+        <v>15</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="D76" s="2">
         <v>204</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H76" s="2">
+        <v>7</v>
+      </c>
+      <c r="G76" s="7">
         <v>132500</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>121</v>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D77" s="2">
         <v>204</v>
       </c>
       <c r="E77" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H77" s="2">
+      <c r="G77" s="7">
         <v>8900</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>122</v>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D78" s="2">
         <v>204</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H78" s="2">
+      <c r="G78" s="7">
         <v>460000</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>123</v>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D79" s="2">
         <v>204</v>
       </c>
       <c r="E79" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G79" s="7">
+        <v>182500</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="G80" s="7">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="G81" s="7">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G82" s="7">
+        <v>94500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="7">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H79" s="2">
-        <v>182500</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+      <c r="G84" s="7">
+        <v>365000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G85" s="7">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G86" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G87" s="7">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G88" s="7">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G89" s="7">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="7">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D80" s="2">
-        <v>14</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G80" s="2" t="s">
+      <c r="B94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G95" s="7">
+        <v>137500</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H80" s="2">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D81" s="2">
-        <v>14</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="2">
-        <v>27000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D82" s="2">
-        <v>14</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H82" s="2">
-        <v>94500</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D83" s="2">
-        <v>14</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H83" s="2">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
+      <c r="G97" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D84" s="2">
-        <v>14</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H84" s="2">
-        <v>365000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D85" s="2">
-        <v>14</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H85" s="2">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D86" s="2">
-        <v>14</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H86" s="2">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D87" s="2">
-        <v>14</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H87" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D88" s="2">
-        <v>14</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H88" s="2">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D89" s="2">
-        <v>6</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H89" s="2">
-        <v>17500</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D90" s="2">
-        <v>6</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D91" s="2">
-        <v>6</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H91" s="2">
-        <v>2550</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D92" s="2">
-        <v>6</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D93" s="2">
-        <v>6</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D94" s="2">
-        <v>6</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D95" s="2">
-        <v>6</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H95" s="2">
-        <v>137500</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D96" s="2">
-        <v>6</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D97" s="2">
-        <v>6</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="B98" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D98" s="2">
         <v>200</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H98" s="2">
+        <v>2</v>
+      </c>
+      <c r="G98" s="7">
         <v>138800</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>143</v>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D99" s="2">
         <v>200</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H99" s="2">
+        <v>3</v>
+      </c>
+      <c r="G99" s="7">
         <v>139300</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>144</v>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D100" s="2">
         <v>200</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H100" s="2">
+        <v>4</v>
+      </c>
+      <c r="G100" s="7">
         <v>395000</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
-        <v>145</v>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D101" s="2">
         <v>200</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H101" s="2">
+        <v>5</v>
+      </c>
+      <c r="G101" s="7">
         <v>300000</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
-        <v>146</v>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D102" s="2">
         <v>200</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H102" s="2">
+        <v>6</v>
+      </c>
+      <c r="G102" s="7">
         <v>390000</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>147</v>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D103" s="2">
         <v>200</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H103" s="2">
+        <v>7</v>
+      </c>
+      <c r="G103" s="7">
         <v>12825</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
-        <v>148</v>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D104" s="2">
         <v>200</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H104" s="2">
+        <v>103</v>
+      </c>
+      <c r="G104" s="7">
         <v>610000</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
-        <v>149</v>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D105" s="2">
         <v>200</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H105" s="2">
+        <v>104</v>
+      </c>
+      <c r="G105" s="7">
         <v>195000</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
-        <v>150</v>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D106" s="2">
         <v>200</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H106" s="2">
+        <v>105</v>
+      </c>
+      <c r="G106" s="7">
         <v>170000</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
-        <v>151</v>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D107" s="2">
         <v>221</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H107" s="2">
+        <v>2</v>
+      </c>
+      <c r="G107" s="7">
         <v>345000</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
-        <v>152</v>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D108" s="2">
         <v>221</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H108" s="2">
+        <v>3</v>
+      </c>
+      <c r="G108" s="7">
         <v>350000</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
-        <v>153</v>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D109" s="2">
         <v>221</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H109" s="2">
+        <v>4</v>
+      </c>
+      <c r="G109" s="7">
         <v>61000</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
-        <v>154</v>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D110" s="2">
         <v>221</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H110" s="2">
+        <v>5</v>
+      </c>
+      <c r="G110" s="7">
         <v>210000</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
-        <v>155</v>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D111" s="2">
         <v>221</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H111" s="2">
+        <v>6</v>
+      </c>
+      <c r="G111" s="7">
         <v>360000</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
-        <v>156</v>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D112" s="2">
         <v>221</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H112" s="2">
+        <v>7</v>
+      </c>
+      <c r="G112" s="7">
         <v>19500</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
-        <v>157</v>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D113" s="2">
         <v>221</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H113" s="2">
+        <v>103</v>
+      </c>
+      <c r="G113" s="7">
         <v>120500</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
-        <v>158</v>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D114" s="2">
         <v>221</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H114" s="2">
+        <v>104</v>
+      </c>
+      <c r="G114" s="7">
         <v>220000</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D115" s="2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D115" s="10">
         <v>221</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H115" s="2">
+      <c r="E115" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G115" s="11">
         <v>650000</v>
       </c>
     </row>

--- a/pseud_epi_growth_2024summer_R.xlsx
+++ b/pseud_epi_growth_2024summer_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301256AE-5D6E-BE47-86AF-7A4DCDC3CE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEBD28B-D449-2941-B41A-42EB0B7E579D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="27720" windowHeight="16940" xr2:uid="{531AFAF7-A9B0-284D-AB86-9C10EDD001D7}"/>
   </bookViews>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="150">
-  <si>
-    <t>P. parallactic</t>
-  </si>
-  <si>
-    <t>P. fluorescence</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="148">
   <si>
     <t>A1</t>
   </si>
@@ -706,41 +700,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -996,13 +955,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1037,6 +989,48 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="0" xr9:uid="{CA5F48A4-B453-5E47-B245-0E585D11C996}"/>
@@ -1053,19 +1047,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{473B24F8-CE6A-DD41-8057-5706F46969E7}" name="Table3" displayName="Table3" ref="A1:G115" totalsRowShown="0" headerRowDxfId="0" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{473B24F8-CE6A-DD41-8057-5706F46969E7}" name="Table3" displayName="Table3" ref="A1:G115" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="A1:G115" xr:uid="{473B24F8-CE6A-DD41-8057-5706F46969E7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G115">
-    <sortCondition ref="C1:C115"/>
+    <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{79B774C7-19E1-E44C-93A3-534AA1EC2EC5}" name="sample" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{BDF1DD58-4ACB-A24F-B5BD-72CD9F931025}" name="person" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{B8055292-21AA-6048-B0E9-DCD4D41BE2D0}" name="block" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{ED985B81-A5C7-1C48-A9FC-68F50AFED322}" name="strain" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{ED50E578-BA94-F94A-A39C-47AE786F0B3F}" name="species" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{111388D3-8650-BB4E-BF6C-36D07A696611}" name="plant_rep" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{0EFE4EF2-B0EE-814D-B3F4-2C291DA83834}" name="CFU_per_10_leafdiscs" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{79B774C7-19E1-E44C-93A3-534AA1EC2EC5}" name="sample" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{BDF1DD58-4ACB-A24F-B5BD-72CD9F931025}" name="person" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B8055292-21AA-6048-B0E9-DCD4D41BE2D0}" name="block" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{ED985B81-A5C7-1C48-A9FC-68F50AFED322}" name="strain" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{ED50E578-BA94-F94A-A39C-47AE786F0B3F}" name="species" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{111388D3-8650-BB4E-BF6C-36D07A696611}" name="plant_rep" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{0EFE4EF2-B0EE-814D-B3F4-2C291DA83834}" name="CFU_per_10_leafdiscs" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1391,7 +1385,7 @@
   <dimension ref="A1:G115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="43.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1408,2647 +1402,2647 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2">
-        <v>205</v>
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" s="7">
-        <v>110000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2">
-        <v>205</v>
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" s="7">
-        <v>170000</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>205</v>
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="G4" s="7">
+        <v>94500</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2">
-        <v>215</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>17</v>
+      <c r="G5" s="7">
+        <v>1650</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2">
-        <v>215</v>
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="G6" s="7">
+        <v>365000</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2">
-        <v>215</v>
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="G7" s="7">
+        <v>14000</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="D8" s="2">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" s="7">
-        <v>22000</v>
+        <v>8900</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="D9" s="2">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" s="7">
-        <v>2000</v>
+        <v>460000</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="D10" s="2">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="G10" s="7">
+        <v>182500</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2">
-        <v>205</v>
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>4000</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="2">
-        <v>4</v>
-      </c>
-      <c r="D12" s="2">
-        <v>205</v>
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12" s="7">
-        <v>31000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2">
-        <v>4</v>
-      </c>
-      <c r="D13" s="2">
-        <v>205</v>
+        <v>13</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G13" s="7">
-        <v>30000</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="2">
-        <v>4</v>
-      </c>
-      <c r="D14" s="2">
-        <v>215</v>
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>17500</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="2">
-        <v>4</v>
-      </c>
-      <c r="D15" s="2">
-        <v>215</v>
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="2">
-        <v>4</v>
-      </c>
-      <c r="D16" s="2">
-        <v>215</v>
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="G16" s="7">
+        <v>2550</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2">
-        <v>4</v>
-      </c>
-      <c r="D17" s="2">
-        <v>216</v>
+        <v>13</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="2">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="2">
-        <v>216</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="7">
-        <v>4700</v>
+      <c r="G18" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="2">
-        <v>4</v>
-      </c>
-      <c r="D19" s="2">
-        <v>216</v>
+        <v>13</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="7">
-        <v>3900</v>
+        <v>5</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="2">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20" s="7">
-        <v>360000</v>
+        <v>137500</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="2">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="7">
-        <v>24000</v>
+        <v>1</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="2">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="7">
-        <v>250000</v>
+        <v>2</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="2">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D23" s="2">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23" s="7">
-        <v>40000</v>
+        <v>138800</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="2">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D24" s="2">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G24" s="7">
-        <v>36000</v>
+        <v>139300</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="2">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D25" s="2">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G25" s="7">
-        <v>29000</v>
+        <v>395000</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="2">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D26" s="2">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" s="7">
-        <v>22000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="2">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D27" s="2">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="G27" s="7">
+        <v>390000</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="2">
+        <v>13</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="2">
+        <v>200</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="2">
-        <v>227</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>17</v>
+      <c r="G28" s="7">
+        <v>12825</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="2">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D29" s="2">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="G29" s="7">
-        <v>42000</v>
+        <v>610000</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="2">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D30" s="2">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>17</v>
+        <v>102</v>
+      </c>
+      <c r="G30" s="7">
+        <v>195000</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="2">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D31" s="2">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="G31" s="7">
-        <v>38000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="2">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="D32" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G32" s="7">
-        <v>300000</v>
+        <v>345000</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="2">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="D33" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="G33" s="7">
+        <v>350000</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="2">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="D34" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G34" s="7">
-        <v>2800</v>
+        <v>61000</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="2">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="D35" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="G35" s="7">
+        <v>210000</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="2">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="D36" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G36" s="7">
-        <v>23000</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="2">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="D37" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G37" s="7">
-        <v>65000</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="2">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="D38" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="G38" s="7">
-        <v>4700</v>
+        <v>120500</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="2">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="D39" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="G39" s="7">
-        <v>15000</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="2">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="D40" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>17</v>
+        <v>103</v>
+      </c>
+      <c r="G40" s="7">
+        <v>650000</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="2">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="D41" s="2">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G41" s="7">
-        <v>330000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="2">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="D42" s="2">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G42" s="7">
-        <v>470000</v>
+        <v>57000</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="2">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="D43" s="2">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="G43" s="7">
+        <v>136500</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="2">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="D44" s="2">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="G44" s="7">
+        <v>60000</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="2">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="D45" s="2">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G45" s="7">
-        <v>12000</v>
+        <v>146000</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="2">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="D46" s="2">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="G46" s="7">
+        <v>118750</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="2">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="D47" s="2">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G47" s="7">
-        <v>87000</v>
+        <v>230000</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="2">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="D48" s="2">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G48" s="7">
-        <v>2500</v>
+        <v>505000</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="2">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="D49" s="2">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G49" s="7">
-        <v>11050</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="2">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="D50" s="2">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G50" s="7">
-        <v>144000</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="2">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="D51" s="2">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G51" s="7">
-        <v>470000</v>
+        <v>1</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="2">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="D52" s="2">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G52" s="7">
-        <v>7300</v>
+        <v>495000</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="2">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="D53" s="2">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="G53" s="7">
+        <v>97000</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="2">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="D54" s="2">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>13</v>
+        <v>4</v>
+      </c>
+      <c r="G54" s="7">
+        <v>114000</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="2">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="D55" s="2">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="G55" s="7">
+        <v>132500</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C56" s="2">
-        <v>8</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>148</v>
+        <v>3</v>
+      </c>
+      <c r="D56" s="2">
+        <v>205</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="G56" s="7">
+        <v>110000</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C57" s="2">
-        <v>8</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>148</v>
+        <v>3</v>
+      </c>
+      <c r="D57" s="2">
+        <v>205</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="G57" s="7">
+        <v>170000</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C58" s="2">
-        <v>8</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>148</v>
+        <v>3</v>
+      </c>
+      <c r="D58" s="2">
+        <v>205</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C59" s="2">
-        <v>8</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>148</v>
+        <v>3</v>
+      </c>
+      <c r="D59" s="2">
+        <v>215</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C60" s="2">
-        <v>8</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>148</v>
+        <v>3</v>
+      </c>
+      <c r="D60" s="2">
+        <v>215</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" s="7">
-        <v>1300</v>
+        <v>1</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C61" s="2">
-        <v>8</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>148</v>
+        <v>3</v>
+      </c>
+      <c r="D61" s="2">
+        <v>215</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G61" s="7">
-        <v>1000</v>
+        <v>2</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>147</v>
+        <v>14</v>
+      </c>
+      <c r="C62" s="2">
+        <v>3</v>
       </c>
       <c r="D62" s="2">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="E62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="G62" s="7">
-        <v>40000</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>147</v>
+        <v>14</v>
+      </c>
+      <c r="C63" s="2">
+        <v>3</v>
       </c>
       <c r="D63" s="2">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G63" s="7">
-        <v>57000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="2">
+        <v>3</v>
+      </c>
+      <c r="D64" s="2">
+        <v>216</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G64" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D64" s="2">
-        <v>194</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G64" s="7">
-        <v>136500</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="2">
+        <v>4</v>
+      </c>
+      <c r="D65" s="2">
+        <v>205</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G65" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D65" s="2">
-        <v>194</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G65" s="7">
-        <v>60000</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>147</v>
+        <v>14</v>
+      </c>
+      <c r="C66" s="2">
+        <v>4</v>
       </c>
       <c r="D66" s="2">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G66" s="7">
-        <v>146000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>147</v>
+        <v>14</v>
+      </c>
+      <c r="C67" s="2">
+        <v>4</v>
       </c>
       <c r="D67" s="2">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G67" s="7">
-        <v>118750</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="2">
+        <v>4</v>
+      </c>
+      <c r="D68" s="2">
+        <v>215</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G68" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D68" s="2">
-        <v>194</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G68" s="7">
-        <v>230000</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="2">
+        <v>4</v>
+      </c>
+      <c r="D69" s="2">
+        <v>215</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G69" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D69" s="2">
-        <v>194</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G69" s="7">
-        <v>505000</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="2">
+        <v>4</v>
+      </c>
+      <c r="D70" s="2">
+        <v>215</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G70" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D70" s="2">
-        <v>194</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G70" s="7">
-        <v>115000</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>146</v>
+        <v>14</v>
+      </c>
+      <c r="C71" s="2">
+        <v>4</v>
       </c>
       <c r="D71" s="2">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G71" s="7">
-        <v>5200</v>
+        <v>0</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>146</v>
+        <v>14</v>
+      </c>
+      <c r="C72" s="2">
+        <v>4</v>
       </c>
       <c r="D72" s="2">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="E72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>13</v>
+      <c r="G72" s="7">
+        <v>4700</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>146</v>
+        <v>14</v>
+      </c>
+      <c r="C73" s="2">
+        <v>4</v>
       </c>
       <c r="D73" s="2">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G73" s="7">
-        <v>495000</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C74" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="2">
+        <v>4</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D74" s="2">
-        <v>204</v>
-      </c>
       <c r="E74" s="2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G74" s="7">
-        <v>97000</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C75" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="2">
+        <v>4</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D75" s="2">
-        <v>204</v>
-      </c>
       <c r="E75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="G75" s="7">
-        <v>114000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C76" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="2">
+        <v>4</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D76" s="2">
-        <v>204</v>
-      </c>
       <c r="E76" s="2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G76" s="7">
-        <v>132500</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>97</v>
+        <v>14</v>
+      </c>
+      <c r="C77" s="2">
+        <v>5</v>
       </c>
       <c r="D77" s="2">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G77" s="7">
-        <v>8900</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>97</v>
+        <v>14</v>
+      </c>
+      <c r="C78" s="2">
+        <v>5</v>
       </c>
       <c r="D78" s="2">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="E78" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G78" s="7">
-        <v>460000</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>97</v>
+        <v>14</v>
+      </c>
+      <c r="C79" s="2">
+        <v>5</v>
       </c>
       <c r="D79" s="2">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G79" s="7">
-        <v>182500</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>98</v>
+        <v>14</v>
+      </c>
+      <c r="C80" s="2">
+        <v>5</v>
+      </c>
+      <c r="D80" s="2">
+        <v>227</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G80" s="7">
-        <v>13000</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="2">
+        <v>5</v>
+      </c>
+      <c r="D81" s="2">
+        <v>227</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G81" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G81" s="7">
-        <v>27000</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="2">
+        <v>5</v>
+      </c>
+      <c r="D82" s="2">
+        <v>227</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G82" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G82" s="7">
-        <v>94500</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>98</v>
+        <v>14</v>
+      </c>
+      <c r="C83" s="2">
+        <v>5</v>
+      </c>
+      <c r="D83" s="2">
+        <v>228</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G83" s="7">
-        <v>1650</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="2">
+        <v>5</v>
+      </c>
+      <c r="D84" s="2">
+        <v>228</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G84" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G84" s="7">
-        <v>365000</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>98</v>
+        <v>14</v>
+      </c>
+      <c r="C85" s="2">
+        <v>5</v>
+      </c>
+      <c r="D85" s="2">
+        <v>228</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G85" s="7">
-        <v>14000</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>98</v>
+        <v>14</v>
+      </c>
+      <c r="C86" s="2">
+        <v>6</v>
+      </c>
+      <c r="D86" s="2">
+        <v>220</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G86" s="7">
-        <v>4000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>98</v>
+        <v>14</v>
+      </c>
+      <c r="C87" s="2">
+        <v>6</v>
+      </c>
+      <c r="D87" s="2">
+        <v>220</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G87" s="7">
-        <v>12000</v>
+        <v>1</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>98</v>
+        <v>14</v>
+      </c>
+      <c r="C88" s="2">
+        <v>6</v>
+      </c>
+      <c r="D88" s="2">
+        <v>220</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G88" s="7">
-        <v>26000</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>149</v>
+        <v>14</v>
+      </c>
+      <c r="C89" s="2">
+        <v>6</v>
+      </c>
+      <c r="D89" s="2">
+        <v>228</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G89" s="7">
-        <v>17500</v>
+        <v>0</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>149</v>
+        <v>14</v>
+      </c>
+      <c r="C90" s="2">
+        <v>6</v>
+      </c>
+      <c r="D90" s="2">
+        <v>228</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="G90" s="7">
+        <v>23000</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>149</v>
+        <v>14</v>
+      </c>
+      <c r="C91" s="2">
+        <v>6</v>
+      </c>
+      <c r="D91" s="2">
+        <v>228</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G91" s="7">
-        <v>2550</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>149</v>
+        <v>14</v>
+      </c>
+      <c r="C92" s="2">
+        <v>7</v>
+      </c>
+      <c r="D92" s="2">
+        <v>216</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>99</v>
+        <v>0</v>
+      </c>
+      <c r="G92" s="7">
+        <v>4700</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>149</v>
+        <v>14</v>
+      </c>
+      <c r="C93" s="2">
+        <v>7</v>
+      </c>
+      <c r="D93" s="2">
+        <v>216</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>99</v>
+        <v>1</v>
+      </c>
+      <c r="G93" s="7">
+        <v>15000</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" s="2">
+        <v>7</v>
+      </c>
+      <c r="D94" s="2">
+        <v>216</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G94" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>149</v>
+        <v>14</v>
+      </c>
+      <c r="C95" s="2">
+        <v>7</v>
+      </c>
+      <c r="D95" s="2">
+        <v>220</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G95" s="7">
-        <v>137500</v>
+        <v>330000</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>149</v>
+        <v>14</v>
+      </c>
+      <c r="C96" s="2">
+        <v>7</v>
+      </c>
+      <c r="D96" s="2">
+        <v>220</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="G96" s="7">
+        <v>470000</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>149</v>
+        <v>14</v>
+      </c>
+      <c r="C97" s="2">
+        <v>7</v>
+      </c>
+      <c r="D97" s="2">
+        <v>220</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>102</v>
+        <v>14</v>
+      </c>
+      <c r="C98" s="2">
+        <v>7</v>
       </c>
       <c r="D98" s="2">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G98" s="7">
-        <v>138800</v>
+        <v>0</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>102</v>
+        <v>14</v>
+      </c>
+      <c r="C99" s="2">
+        <v>7</v>
       </c>
       <c r="D99" s="2">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G99" s="7">
-        <v>139300</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" s="2">
+        <v>7</v>
+      </c>
+      <c r="D100" s="2">
+        <v>228</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G100" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D100" s="2">
-        <v>200</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="7">
-        <v>395000</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>102</v>
+        <v>14</v>
+      </c>
+      <c r="C101" s="2">
+        <v>8</v>
       </c>
       <c r="D101" s="2">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G101" s="7">
-        <v>300000</v>
+        <v>87000</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>102</v>
+        <v>14</v>
+      </c>
+      <c r="C102" s="2">
+        <v>8</v>
       </c>
       <c r="D102" s="2">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G102" s="7">
-        <v>390000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>102</v>
+        <v>14</v>
+      </c>
+      <c r="C103" s="2">
+        <v>8</v>
       </c>
       <c r="D103" s="2">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G103" s="7">
-        <v>12825</v>
+        <v>11050</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>102</v>
+        <v>14</v>
+      </c>
+      <c r="C104" s="2">
+        <v>8</v>
       </c>
       <c r="D104" s="2">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="G104" s="7">
-        <v>610000</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>102</v>
+        <v>14</v>
+      </c>
+      <c r="C105" s="2">
+        <v>8</v>
       </c>
       <c r="D105" s="2">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="G105" s="7">
-        <v>195000</v>
+        <v>470000</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>102</v>
+        <v>14</v>
+      </c>
+      <c r="C106" s="2">
+        <v>8</v>
       </c>
       <c r="D106" s="2">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="G106" s="7">
-        <v>170000</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>106</v>
+        <v>14</v>
+      </c>
+      <c r="C107" s="2">
+        <v>8</v>
       </c>
       <c r="D107" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G107" s="7">
-        <v>345000</v>
+        <v>0</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>106</v>
+        <v>14</v>
+      </c>
+      <c r="C108" s="2">
+        <v>8</v>
       </c>
       <c r="D108" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G108" s="7">
-        <v>350000</v>
+        <v>1</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" s="2">
+        <v>8</v>
+      </c>
+      <c r="D109" s="2">
+        <v>228</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G109" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D109" s="2">
-        <v>221</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G109" s="7">
-        <v>61000</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" s="2">
+        <v>8</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G110" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D110" s="2">
-        <v>221</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G110" s="7">
-        <v>210000</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" s="2">
+        <v>8</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G111" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D111" s="2">
-        <v>221</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G111" s="7">
-        <v>360000</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" s="2">
+        <v>8</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G112" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D112" s="2">
-        <v>221</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G112" s="7">
-        <v>19500</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" s="2">
+        <v>8</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G113" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D113" s="2">
-        <v>221</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G113" s="7">
-        <v>120500</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D114" s="2">
-        <v>221</v>
+        <v>14</v>
+      </c>
+      <c r="C114" s="2">
+        <v>8</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="G114" s="7">
-        <v>220000</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D115" s="10">
-        <v>221</v>
+        <v>14</v>
+      </c>
+      <c r="C115" s="10">
+        <v>8</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="G115" s="11">
-        <v>650000</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
